--- a/APM files/123649133/Baltic-Apartments - Properties List.xlsx
+++ b/APM files/123649133/Baltic-Apartments - Properties List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2E0BA-E3EC-4444-9FBC-0AC47BEE2A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14A2EA-EB0D-4442-BD91-C16D0E51C8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12735" yWindow="3810" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,101 +384,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101544913</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>38519695</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>38515954</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>23909649</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39421704</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>22283126</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>38533193</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>38533039</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>83437017</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>38518854</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>87924077</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>58316555</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>38514997</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>38515255</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>38515686</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>88893764</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>74616761</v>
       </c>
